--- a/biology/Botanique/Philipp_Maximilian_Opiz/Philipp_Maximilian_Opiz.xlsx
+++ b/biology/Botanique/Philipp_Maximilian_Opiz/Philipp_Maximilian_Opiz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philipp (Filip) Maximilian Opiz, né le 5 juin 1787 à Čáslav (royaume de Bohême) et mort le 20 mai 1858 à Prague (empire d'Autriche), est un forestier et botaniste autrichien.
-À partir de 1805, il est fonctionnaire-caméraliste dans sa ville natale de Čáslav. Il travaille plus tard à Pardubice (depuis 1808) et à Prague (depuis 1814). En 1831, il est Forstamtsconcipist (fonctionnaire forestier)[1].
-Il est l'autorité taxonomique de nombreuses espèces de plantes[2] et le créateur de nombreux ensembles d'exsiccatae.
-En 1830, Carl Borivoj Presl a nommé le genre Opizia en son honneur[3].
+À partir de 1805, il est fonctionnaire-caméraliste dans sa ville natale de Čáslav. Il travaille plus tard à Pardubice (depuis 1808) et à Prague (depuis 1814). En 1831, il est Forstamtsconcipist (fonctionnaire forestier).
+Il est l'autorité taxonomique de nombreuses espèces de plantes et le créateur de nombreux ensembles d'exsiccatae.
+En 1830, Carl Borivoj Presl a nommé le genre Opizia en son honneur.
 </t>
         </is>
       </c>
@@ -514,11 +526,13 @@
           <t>Œuvres principales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Deutschlands cryptogamische Gewächse. Ein Anhang zur Flora Deutschlands von Joh. Christ. Röhling, 1817 - Cryptogames allemands ; notes concernant "Flora Deutschland" de Johann Christoph Röhling.
 Böheims phänerogamische und cryptogamische gewächse 1823 - Bohême phanérogames et cryptogames.
-Seznam rostlin květeny české, 1852, inventaire de la flore tchèque[4].</t>
+Seznam rostlin květeny české, 1852, inventaire de la flore tchèque.</t>
         </is>
       </c>
     </row>
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
